--- a/doc/测试用例表.xlsx
+++ b/doc/测试用例表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_ONE-CCS\_School\毕设\xgg\leave_approval_management_system\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14547556-BFC4-4FBB-AF61-8C96CFDD64BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D32E47-B320-44AE-A328-3108299D6477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
   <si>
     <t>测试行为</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +212,74 @@
   </si>
   <si>
     <t>显示同意销假成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未登录点击用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击学生管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示学生列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击教师管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示教师列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击管理员管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示管理员列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击用户详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示用户详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击修改用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示修改用户信息页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击删除用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示确认删除提示框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击提交修改按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示修改成功并更新显示数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确认删除按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示删除成功并显示删除后的数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -726,13 +794,13 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -747,7 +815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,24 +849,24 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -869,35 +937,35 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -909,6 +977,116 @@
         <v>46</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>3</v>
       </c>
     </row>
